--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12832.0041606203</v>
+        <v>2553568.827963438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12832.0041606203</v>
+        <v>2553568.827963438</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28699.58531155923</v>
+        <v>1724546.697873777</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28699.58531155923</v>
+        <v>1724546.697873777</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114209412.006204</v>
+        <v>46607427.28422797</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11761.35271337302</v>
+        <v>1293245.929402537</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21303.34804022669</v>
+        <v>2205982.058508522</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30845.34336708035</v>
+        <v>3118718.187614508</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41149.35280010595</v>
+        <v>3954335.934051848</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51566.79645387253</v>
+        <v>4812527.090416652</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61332.88011484594</v>
+        <v>5747351.781662395</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70986.0611087726</v>
+        <v>6659708.842165835</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80639.24210269927</v>
+        <v>7572065.902669273</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90948.32435184451</v>
+        <v>8406107.090555128</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101366.8459337627</v>
+        <v>9264395.473613052</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111783.5081744746</v>
+        <v>10122305.63606492</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122200.1291503322</v>
+        <v>10980215.79851679</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132616.7913910441</v>
+        <v>11838125.96096866</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>143033.4123669018</v>
+        <v>12696036.12342054</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153457.8721714533</v>
+        <v>13553207.30851785</v>
       </c>
     </row>
   </sheetData>
